--- a/examples/timetable_school/spreadsheets/example-timetable_school.xlsx
+++ b/examples/timetable_school/spreadsheets/example-timetable_school.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\timetable_school\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5BCED6-4DE6-4A53-BFED-A176A8816F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F557A4A-5F4A-4B18-9ACC-AFE4B40662F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="4" xr2:uid="{41FF037C-E733-4109-8018-268BF2C7ACEB}"/>
   </bookViews>
@@ -791,9 +791,6 @@
     <t>Days</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>science-c, physics, chemistry, biology, form</t>
   </si>
   <si>
@@ -819,6 +816,9 @@
   </si>
   <si>
     <t>pe-1, pe-2</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="22" spans="1:34" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="20" t="s">
@@ -11520,7 +11520,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11531,7 +11531,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11542,7 +11542,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11553,7 +11553,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11564,7 +11564,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11575,7 +11575,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11586,7 +11586,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11597,7 +11597,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11732,10 +11732,10 @@
         <v>201</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -11992,7 +11992,7 @@
         <v>201</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -12140,7 +12140,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -12158,7 +12158,7 @@
         <v>247</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>253</v>
@@ -12170,13 +12170,13 @@
         <v>202</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="12"/>
